--- a/Batch/21/Day_3_PS.xlsx
+++ b/Batch/21/Day_3_PS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\excel\Batch\21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D6730B-35A3-498D-86EC-D63B46A00BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC3888-F9D3-4AB6-8F51-C98D35DA4F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discussion" sheetId="1" r:id="rId1"/>
@@ -446,9 +446,6 @@
     <t xml:space="preserve">You don’t text me </t>
   </si>
   <si>
-    <t>You don’t have I love you</t>
-  </si>
-  <si>
     <t xml:space="preserve">We don’t go out </t>
   </si>
   <si>
@@ -1494,6 +1491,9 @@
   </si>
   <si>
     <t>5. Causes for unsustainable farming in modern supply chains.</t>
+  </si>
+  <si>
+    <t>You don’t say I love you</t>
   </si>
 </sst>
 </file>
@@ -1623,9 +1623,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1640,6 +1637,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1676,8 +1676,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>154428</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -1696,7 +1696,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -1741,8 +1741,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>35786</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -1761,7 +1761,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -1806,8 +1806,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>37946</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -1826,7 +1826,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -1871,8 +1871,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>147420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -1891,7 +1891,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -1936,8 +1936,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>159660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -1956,7 +1956,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -2001,8 +2001,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>103871</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Ink 50">
@@ -2021,7 +2021,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Ink 50">
@@ -2066,8 +2066,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>155985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Ink 57">
@@ -2086,7 +2086,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Ink 57">
@@ -2131,8 +2131,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114536</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Ink 59">
@@ -2151,7 +2151,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Ink 59">
@@ -2196,8 +2196,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>154218</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Ink 60">
@@ -2216,7 +2216,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Ink 60">
@@ -2261,8 +2261,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>70698</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="67" name="Ink 66">
@@ -2281,7 +2281,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="67" name="Ink 66">
@@ -2326,8 +2326,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>55823</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Ink 68">
@@ -2346,7 +2346,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Ink 68">
@@ -2391,8 +2391,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>126383</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Ink 70">
@@ -2411,7 +2411,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Ink 70">
@@ -2456,8 +2456,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>131178</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Ink 74">
@@ -2476,7 +2476,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Ink 74">
@@ -2521,8 +2521,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>165018</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -2541,7 +2541,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -2586,8 +2586,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>33090</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Ink 106">
@@ -2606,7 +2606,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Ink 106">
@@ -2651,8 +2651,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>113336</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Ink 107">
@@ -2671,7 +2671,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Ink 107">
@@ -2716,8 +2716,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>154083</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Ink 108">
@@ -2736,7 +2736,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Ink 108">
@@ -2781,8 +2781,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>68010</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Ink 109">
@@ -2801,7 +2801,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Ink 109">
@@ -2846,8 +2846,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>170066</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="114" name="Ink 113">
@@ -2866,7 +2866,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="114" name="Ink 113">
@@ -2911,8 +2911,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>588</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="122" name="Ink 121">
@@ -2931,7 +2931,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="122" name="Ink 121">
@@ -2976,8 +2976,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>96675</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Ink 122">
@@ -2996,7 +2996,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Ink 122">
@@ -3041,8 +3041,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>49155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Ink 128">
@@ -3061,7 +3061,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Ink 128">
@@ -3106,8 +3106,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>65599</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Ink 130">
@@ -3126,7 +3126,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Ink 130">
@@ -3171,8 +3171,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>172384</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Ink 153">
@@ -3191,7 +3191,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Ink 153">
@@ -3236,8 +3236,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>130020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Ink 154">
@@ -3256,7 +3256,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Ink 154">
@@ -3301,8 +3301,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>41853</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="156" name="Ink 155">
@@ -3321,7 +3321,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="156" name="Ink 155">
@@ -3366,8 +3366,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>134441</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="157" name="Ink 156">
@@ -3386,7 +3386,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="157" name="Ink 156">
@@ -3431,8 +3431,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>80584</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Ink 157">
@@ -3451,7 +3451,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Ink 157">
@@ -3496,8 +3496,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>93795</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="165" name="Ink 164">
@@ -3516,7 +3516,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="165" name="Ink 164">
@@ -3561,8 +3561,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>160721</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="169" name="Ink 168">
@@ -3581,7 +3581,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="169" name="Ink 168">
@@ -3757,7 +3757,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">88 32 14839,'0'0'1566,"-9"4"-1225,4-2-306,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0-1,1 1 1,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,0 0 0,1 1 0,0-1 0,0 0-1,0 0 1,1 1 0,0 6 0,0-7 36,-1-2-8,1 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,0 1 1,1 3-1,-1-6-47,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,3-1 0,-1 2 60,1-1-1,-1 0 1,0 0 0,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,0 0 0,1-1-1,-1 1 1,0-1-1,0 1 1,-1-1-1,4-2 1,-4 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-7 0,0 8 4,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,-1 0 0,-2-2 0,-1 2-217,1 0 0,-1 1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 1 0,0 0 1,1 0-1,-7 1 0,11-2-73,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,0 5-4874</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="329">291 87 11013,'0'0'4439,"7"11"-4289,19 31-57,-25-40-84,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 3 0,-1 2 3107,1-9-1315,1-7-1666,-1 0-1,1 1 0,1-1 1,0 0-1,0 0 1,1 1-1,0 0 0,1-1 1,0 1-1,0 0 1,1 1-1,0-1 0,0 1 1,1 0-1,12-12 0,-16 19-310,1-1 0,-1 1 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,5 0 0,40 7-3867,-20 1 172,-3 2-1676</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1158.17">620 50 3762,'0'0'15001,"0"0"-14903,0 0 1,0 0-1,0-1 0,0 1 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,-1-1 0,-1 1-88,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 1 1,1 0-1,-1-1 1,-1 3-1,1 1 8,0-1 1,0 0-1,1 0 0,-1 1 1,1-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,1 9 0,1-12-14,-1 0-1,1-1 0,-1 1 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,-1 0-1,3-1 0,25-6 255,-19 2-116,-8 5-156,-1-1 1,1 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1 0,1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,2 1-1,9 22-130,-12-21 152,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,1 1 0,2-1 0,-1-1-12,0 0-1,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,-1 0 1,1-1-1,-1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,3-4 0,-5 5 1,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,0 0-1,0-1 1,0-4 0,0 3 103,-15 62-426,15-43 371,1-6-46,-1 1-1,0-1 0,-1 0 1,0 0-1,-3 12 1,3-19 25,1 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 0 1,1-1-1,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,-1-1 1,0-1-1,0 1 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,-3 0-1,6-23 106,2 14-182,0 0 0,1 1-1,0-1 1,1 1 0,-1 0 0,2 0-1,-1 1 1,1-1 0,0 1 0,14-12-1,-10 9-17,0-1 0,-1 0 0,11-17-1,-17 22 65,-1 0 0,1 0 0,-1 0-1,-1-1 1,1 1 0,-1 0 0,0-1-1,0 1 1,-1-1 0,0-8 0,-15 17-227,10 3 220,0 0 0,1 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,1 1 0,-1 0-1,1 0 1,0 0 0,1 0 0,-1 0 0,2 14 0,1-19 9,-1 1 0,0 0 0,0-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1-1,0 0 1,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1-1-1,0 0 1,-1 0 0,1-1 0,0 1 0,3 0-1,10 3-710,0-1 1,28 2-1,1-4-2079,3-1-1662</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1158.16">620 50 3762,'0'0'15001,"0"0"-14903,0 0 1,0 0-1,0-1 0,0 1 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,-1-1 0,-1 1-88,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 1 1,1 0-1,-1-1 1,-1 3-1,1 1 8,0-1 1,0 0-1,1 0 0,-1 1 1,1-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,1 9 0,1-12-14,-1 0-1,1-1 0,-1 1 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,-1 0-1,3-1 0,25-6 255,-19 2-116,-8 5-156,-1-1 1,1 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1 0,1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,2 1-1,9 22-130,-12-21 152,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,1 1 0,2-1 0,-1-1-12,0 0-1,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,-1 0 1,1-1-1,-1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,3-4 0,-5 5 1,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,0 0-1,0-1 1,0-4 0,0 3 103,-15 62-426,15-43 371,1-6-46,-1 1-1,0-1 0,-1 0 1,0 0-1,-3 12 1,3-19 25,1 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 0 1,1-1-1,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,-1-1 1,0-1-1,0 1 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,-3 0-1,6-23 106,2 14-182,0 0 0,1 1-1,0-1 1,1 1 0,-1 0 0,2 0-1,-1 1 1,1-1 0,0 1 0,14-12-1,-10 9-17,0-1 0,-1 0 0,11-17-1,-17 22 65,-1 0 0,1 0 0,-1 0-1,-1-1 1,1 1 0,-1 0 0,0-1-1,0 1 1,-1-1 0,0-8 0,-15 17-227,10 3 220,0 0 0,1 1 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,1 1 0,-1 0-1,1 0 1,0 0 0,1 0 0,-1 0 0,2 14 0,1-19 9,-1 1 0,0 0 0,0-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1-1,0 0 1,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1-1-1,0 0 1,-1 0 0,1-1 0,0 1 0,3 0-1,10 3-710,0-1 1,28 2-1,1-4-2079,3-1-1662</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3853,7 +3853,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">249 140 12630,'0'0'7347,"-20"-1"-7085,-66-1-164,82 3-89,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 1 1,0 0-1,-1-1 1,2 2-1,-1-1 1,0 0-1,0 0 0,0 1 1,1 0-1,0-1 1,-1 1-1,1 0 1,-2 4-1,-5 5 33,1-1 88,0-1-1,1 1 1,0 0-1,1 1 1,1-1 0,-1 1-1,2 0 1,0 1-1,0-1 1,1 1 0,1 0-1,0 0 1,0 0-1,2 21 1,0-31-111,0 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 0,0 1 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1-1 0,5 1 0,11 3-376,-1-2 0,1 0 0,29-1 0,-43-1 164,12 0-1027,-1-1 0,1 0 1,-1-1-1,26-7 0,15-9-4702</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="290.57">612 176 11813,'0'0'9029,"-6"9"-8741,-5 8-47,2 0 0,0 1 1,1 1-1,0-1 0,2 1 1,0 0-1,1 1 0,1-1 1,1 1-1,0 20 0,3-37-224,1-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 0 0,0 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0-1,0-1 1,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0-1 0,1 1-1,4-1 1,10 3-93,0-1 0,32 0-1,-49-2 67,16 1-475,23-2-2114,-38 1 2322,0 0 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 1,0 1-1,0-1 0,-1 1 1,1 0-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 1 0,-1-1 1,1 0-1,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,0-13-5889</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="450.57">636 314 11237,'0'0'10757,"19"-23"-10757,20 20 0,5-2-864,0-3-1025,-5-1-720,-15-2-641,-14-6-3201</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="647.33">509 115 13014,'0'0'8116,"132"-53"-8116,-54 42-1057,5 0-1712,-1-6-1249,-8-5-5042</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="647.32">509 115 13014,'0'0'8116,"132"-53"-8116,-54 42-1057,5 0-1712,-1-6-1249,-8-5-5042</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3913,7 +3913,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">78 131 10069,'0'0'9439,"0"-16"-8322,0-68 548,-1 85-1580,1-1-1,-1 0 0,0 0 0,0 1 1,0-1-1,0 1 0,1-1 1,-1 0-1,0 1 0,1 0 1,-1-1-1,0 1 0,1-1 0,-1 1 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1 1 0,-10 23-70,1 1 0,1 0 0,2 1 0,0-1-1,2 1 1,-2 33 0,-1 171 51,8-202-61,0-16-13,0-1 116,0-16 93,0-42 41,4-14-263,2 0 0,3 1-1,17-58 1,-2 1 20,-22 107-20,9-39 142,-11 47-129,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,2 0 0,-1 1 2,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 3 0,7 48 47,-7-46-45,-1-4 8,24 326 177,-22-344-135,0 0 0,1 1 0,1-1 1,0 1-1,7-14 0,-7 17-51,1-3-8,12-35-98,2 0 0,2 1 0,32-53 0,-52 100 103,-1 1-1,0-1 0,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,1-1 0,0 0 1,-1 1-1,1-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 1 0,0 0 4,-1 0 0,1 1-1,0-1 1,0 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,0 0-1,1 0 1,0 2 0,3 7 15,0 0 1,-1 1-1,5 19 1,-3 10 48,-2 0 1,-1 1-1,-2 0 1,-2-1-1,-2 1 1,-15 78-1,11-76-728,9-17-2578,-2-27 2992,0 1-1,1 0 1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1-1-1,0 1 1,0-1 0,1 1-445,25-10-8926</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.46">610 364 4498,'0'0'13230,"-1"-4"-12203,-3-13-133,4 13 2892,-33 7-6249,31 2 711</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.45">610 364 4498,'0'0'13230,"-1"-4"-12203,-3-13-133,4 13 2892,-33 7-6249,31 2 711</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="915.55">798 53 2465,'0'0'13129,"0"-8"-12267,0-25-70,0 32-771,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0-1 0,0 1-1,0 0 1,0-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1-1,-1 1 1,-17 9 124,1 5 167,1 1 1,1 1-1,0 0 1,1 1-1,1 0 1,-16 29-1,11-12 145,2 0 1,-24 73-1,35-89-369,1 0 1,1 0-1,0 1 0,2 0 1,0-1-1,3 30 1,-1-45-46,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,7 0 0,-7 0-148,1 0-1,-1 0 0,1 0 1,0-1-1,-1 0 0,1 0 1,-1-1-1,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1-1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 0-1,-1-1 0,5-5 1,-7 7-453,0-1 1,0 1-1,0 0 0,0-1 1,-1 1-1,1-1 1,-1 1-1,0-1 0,0 1 1,0-5-1,0-12-5706</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1197.42">701 315 6787,'0'0'11419,"-5"-2"-11062,-6-6-276,14 4 101,25 3 338,6 1-57,-10-3-176,0-1 0,40-14 0,-22 0-3701</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1570.03">1261 140 9957,'0'0'7408,"1"-11"-6789,2-29-141,-3 39-455,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,-17 2 42,18-3-44,-8 3 36,1 0-1,0 1 0,0 0 1,0 0-1,1 1 0,0 0 1,0 0-1,0 0 0,0 1 0,-6 9 1,-3 2 184,2 2 1,-16 26 0,21-31-60,1 1-1,1 0 1,0 1-1,1-1 1,1 1 0,-4 31-1,4 0 115,2 50-1,2-91-284,-1-4-3,1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 1,1-1-1,2 2 0,0-2-123,0 1 1,1 0-1,-1-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1-1 1,-1 0-1,6 0 1,3 0-997,0-2 0,0 0 0,0 0 0,0-1 0,0-1 0,16-7 0,-7-2-3992,-2-1-1007</inkml:trace>
@@ -4038,7 +4038,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">205 80 12310,'0'0'9551,"-8"-7"-9178,-26-19-53,34 26-309,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 0 0,0 1-1,1-1 1,0 0 0,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1 0,1 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,-12 25 32,11-22-11,-39 98 526,-32 132-1,63-216-545,7-15-2,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0-1,0 1 1,1-1 0,-2 6-1,2-9 33,0-30-75,3-15-87,1 0 0,2 1 0,3 0 0,1 0 0,2 1 0,27-64 0,-36 99 130,1 0-1,0 0 0,0 1 0,1-1 0,8-11 0,-12 18-3,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 1 0,-1-1-1,0 1 1,1 0 0,-1-1-1,1 1 1,-1 0 0,0 0 0,1 0-1,-1-1 1,1 2 0,-1-1-1,1 0 1,-1 0 0,0 0-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,2 3-1,6 8 66,-1 0 1,0 1-1,0 0 0,-1 0 0,-1 1 1,6 19-1,-1 2 99,11 54 1,-17-47-128,-1 1 0,-3 60 1,-1-66-216,0-36 54,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,0 0 0,0 0-1,-1 0-528,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,-2-1 0,-15 1-7809</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="789.35">25 389 11125,'0'0'10194,"9"-8"-10055,-2 3-119,-3 1-12,0 1-1,1-1 0,-1 1 1,1 0-1,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 1-1,1 0 0,5 0 1,57-1 300,126-9-3155,-170 8 2420,1-1 0,-1-1 0,0-2 0,-1 0 0,40-18 0,-49 15 1123,-17 3 1664,1 6-2246,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-3 1 0,-6 3-97,0 0 0,0 1 1,1 0-1,-19 11 0,24-13-15,1 0-1,-1 0 1,1 1 0,0-1-1,0 1 1,0-1-1,1 1 1,-1 1-1,1-1 1,0 0-1,0 1 1,-4 8-1,9-6-844,9-13 796,13-15 489,-23 19-485,5-4 34,18-13 373,-24 19-356,1 0 0,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,0 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,0 2 1,5 10 109,0 0 1,-1-1-1,-1 2 0,0-1 1,0 0-1,-1 1 1,2 23-1,1 94 287,-7-119-395,0-1 0,0 0 0,-1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,-1-1 0,-8 11 0,4-7 7,-1 0 0,0-1 1,0-1-1,-2 0 0,1-1 0,-1 0 0,-20 12 0,32-29-105,2 1-72,-1 0 1,1 0-1,1 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 1 0,0-1 1,6-8-1,44-56-1263,-29 41 652,63-72-1617,-52 63 2184,-1-2 0,-3-1 0,28-46 0,-57 82 503,0 1 0,0-1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,-1 0 0,1 0 1,-1 0-1,0-9 0,0 11 276,-25 1 1193,21 3-1750,0 0 0,1 0-1,-1 0 1,1 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,1 1 1,-2 3-1,-5 11 96,0 1-1,-8 32 0,12-38-88,1 0 1,1 0-1,0 0 0,1 0 1,0 0-1,2 21 0,0-30-206,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,6 2 0,34 3-3628,5-5-4373</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="789.34">25 389 11125,'0'0'10194,"9"-8"-10055,-2 3-119,-3 1-12,0 1-1,1-1 0,-1 1 1,1 0-1,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 1-1,1 0 0,5 0 1,57-1 300,126-9-3155,-170 8 2420,1-1 0,-1-1 0,0-2 0,-1 0 0,40-18 0,-49 15 1123,-17 3 1664,1 6-2246,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-3 1 0,-6 3-97,0 0 0,0 1 1,1 0-1,-19 11 0,24-13-15,1 0-1,-1 0 1,1 1 0,0-1-1,0 1 1,0-1-1,1 1 1,-1 1-1,1-1 1,0 0-1,0 1 1,-4 8-1,9-6-844,9-13 796,13-15 489,-23 19-485,5-4 34,18-13 373,-24 19-356,1 0 0,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,0 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,0 2 1,5 10 109,0 0 1,-1-1-1,-1 2 0,0-1 1,0 0-1,-1 1 1,2 23-1,1 94 287,-7-119-395,0-1 0,0 0 0,-1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,-1-1 0,-8 11 0,4-7 7,-1 0 0,0-1 1,0-1-1,-2 0 0,1-1 0,-1 0 0,-20 12 0,32-29-105,2 1-72,-1 0 1,1 0-1,1 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 1 0,0-1 1,6-8-1,44-56-1263,-29 41 652,63-72-1617,-52 63 2184,-1-2 0,-3-1 0,28-46 0,-57 82 503,0 1 0,0-1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,-1 0 0,1 0 1,-1 0-1,0-9 0,0 11 276,-25 1 1193,21 3-1750,0 0 0,1 0-1,-1 0 1,1 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,1 1 1,-2 3-1,-5 11 96,0 1-1,-8 32 0,12-38-88,1 0 1,1 0-1,0 0 0,1 0 1,0 0-1,2 21 0,0-30-206,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,6 2 0,34 3-3628,5-5-4373</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2672.69">1253 270 7523,'0'0'11336,"0"-4"-10183,0 3-1096,-1 1 1,1-1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1-1 1,1 0-1,-1 1 0,0-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 0,1 0 1,-3-1-1,-36-5 596,27 5-489,-1 2 0,1 0 0,-1 0 0,-17 5 0,24-4-131,-1 1 0,1-1 0,0 2 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 1 0,1-1 1,0 1-1,1 0 0,-1 1 0,1-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,1 0 0,1 1 1,-1-1-1,1 1 0,1 0 0,-1-1 0,1 1 1,0 0-1,0 12 0,1-17-54,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 1,-1 0-1,4 0 0,3 0 22,0 1 1,0-1-1,1-1 0,-1 1 0,14-4 1,-11-1 13,0 1 1,0-2 0,-1 1-1,0-1 1,0-1 0,16-14-1,-15 12 7,1 0-1,1 0 0,17-9 0,-29 18-16,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 1-1,7 36 109,-6-30-42,9 237 337,-10-207-379,0-32-40,0 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-2 0 0,-6 11 0,7-13 25,0-1 0,0 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1-1 0,0 0-1,0 1 1,0-1 0,-1 0-1,1-1 1,0 1 0,-1-1-1,1 0 1,-1 0 0,1 0-1,-1-1 1,-7 0 0,11 0-14,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,1 0-1,-1 1 0,1-1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1-1 1,-1-37-327,2 27 166,-1 3 92,1 0 0,1-1-1,0 1 1,0 0 0,1 0-1,0 0 1,0 0 0,1 0-1,0 1 1,1-1 0,9-12-1,9-10-465,44-44-1,-22 26-38,-42 45 582,50-65-283,-50 63 410,1 0 0,-1 0-1,-1-1 1,1 1 0,-1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0-9 0,-1 15-119,-1 1 0,1-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 1 0,0-1 0,0 1 1,-24 8 36,23-8-63,0 1 0,-1 0 1,1 0-1,0-1 0,0 1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 1,1 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,1 0-1,-1 0 0,1-1 0,0 5 1,2-6-88,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,5-1 0,-5 1 66,177 0-141,-177 1 174,-1-1-1,1 1 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 1 1,0-1 0,3 4-1,-2-3-9,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,0-1 1,1 1-1,4 0 1,-3-1-186,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,0-1 0,5-2 0,1-3-26,0 0 1,0-1 0,15-15-1,-15 14 372,-9 22 4112,-6 15-4530,2-21 643,2 0-349,-1 0-1,1 0 1,1-1 0,-1 1 0,3 11-1,-3-17-25,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,1 1 0,-1-1 7,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,0 1 1,-1-1-1,2-1 0,0-1-5,0 1-1,0 0 1,0-1-1,0 0 0,0 1 1,-1-1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1-1-1,-1 1 1,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 1,0-4-1,0 4-16,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 1 0,1-1 0,-2 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1 0 0,-5 0 0,-5-1-18,-10 1 178,22 0-160,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0 0-1,3 0-188,1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0-1,7-1 1,-3 1 73,6-1 126,0-1 1,0 0-1,14-4 0,-13 2 27,0 1 0,0 1 1,18-1-1,-31 5 49,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,-1 1-1,1 0 1,-1-1-1,0 1 1,2 5-1,7 11 101,-10-17-170,1-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,0-1 1,3-1-1,2-2 16,0 0-1,0-1 1,0 0-1,0 0 1,6-9-1,5-3-52,0 6 31,-11 18 84,-6-6-80,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,2-1 1,1 2-4,1-1 0,-1-1 0,1 1 0,0 0 1,-1-1-1,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 1,1 0-1,-1 0 0,1-1 0,-1 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0-1 0,-1 1 0,1-1 1,0 0-1,-1 0 0,0 0 0,1-1 0,-1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 0,3-8 0,6-11 7,-1 0 0,-1-1 0,-1-1 0,7-35-1,-11 41 15,4-19-295,3-13 1657,-11 51-1370,0 1-1,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,2 31 12,-5 5 51,0 0 0,-12 48 1,-3 28 39,11-18-40,5-44-62,-2 0 0,-3-1 0,-17 66-1,23-114-10,-11 29-118,12-29 126,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,-2 0 1,3-1 15,-1 0 1,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0 0 0,0 0-1,1-3 1,-1 0 42,-1-22-59,1 0-1,2 1 0,1-1 0,0 1 1,2-1-1,1 1 0,1 1 0,1-1 1,2 1-1,14-28 0,-13 32-60,0 0-1,2 0 1,0 1-1,1 1 1,1 0-1,1 1 1,0 0-1,1 2 1,1 0 0,1 1-1,33-20 1,-44 30 44,1 0 0,0 0-1,0 1 1,1 0 0,-1 1 0,1-1 0,-1 2 0,1 0 0,18 0 0,-27 1 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 0,0 0 1,-1 0-1,1 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,1 1 1,-1 0-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0-1 1,0 1-1,1 1 0,-1-1-14,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,-2 2 0,-16 12 42,-1-1 0,0-1 0,-1 0 0,0-2 0,-36 14 0,-4 4-113,39-17-240,-14 6-1002,10-10-4593,7-7-2167</inkml:trace>
 </inkml:ink>
 </file>
@@ -4070,7 +4070,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">10 120 9156,'0'0'13033,"0"-10"-11926,0-31-301,0 31-318,0 15-328,-10 245-99,10-249-280,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0 0-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,1 1 1,2 0-1117,16 0-6865</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.38">250 114 6611,'0'0'8657,"0"-5"-7267,1 2-1677,-1-16 3620,0 18-3206,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1-1 1,1 1-1,0 0 0,-1 0 1,1 0-1,-2 0 0,2 0-57,-2-1-54,0 1 1,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,-2 1-1,-1 7 51,1 1 0,0 0 0,0 0 0,1 1 0,0-1 0,0 1 0,2-1 0,-1 1-1,1 0 1,1 0 0,1 21 0,-1-26-93,2-6 22,1 0 1,-1 0-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,1 0 1,-1 0-1,0 0 1,4-2-1,0-3 18,0-1 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,0-1-1,-1-1 1,1 1 0,-2 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,0 0-1,0 0 1,-1 1 0,0-1 0,-2-11 0,1 19-12,0-1 1,0 1 0,1-1-1,-2 1 1,1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,1-1 1,-1 1 0,0 0-1,0 1 1,-2-1-1,3 0-122,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,1 0-1,-1 0 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,1 0-1,0 1 1,-1 1-1,3 16-8312,10-13-184</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1813.25">12 161 4978,'0'0'7636,"-3"-6"-6258,-3-5 7096,5 11-7884</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2286.7">249 28 7523,'0'0'8879,"4"-5"-7556,12-13 110,-12 13 1486,-6 41-2370,0-22-449,-10 50 474,4 0 1,-2 84-1,45-150-10510,-12-10-463</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2286.69">249 28 7523,'0'0'8879,"4"-5"-7556,12-13 110,-12 13 1486,-6 41-2370,0-22-449,-10 50 474,4 0 1,-2 84-1,45-150-10510,-12-10-463</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2535.81">590 158 13078,'0'0'9973,"-15"-8"-9637,30 8-496,4 0 240,6 0 176,4-3-256,5 0-1297,0 0-3841,-9 1-4018</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2911.72">975 58 17096,'0'0'3241,"17"-1"-3182,53-1-24,-69 3-27,1-1 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 0 0,0 1 0,-1 0 1,1-1-1,-1 1 0,1-1 0,-1 1 0,0 0 1,1 2-1,-1 2 97,0 0 0,0 0 1,0 0-1,-1 1 0,-2 10 0,1-11 23,-1 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,0 0 1,-1 0 0,1 0-1,-1-1 1,0 0 0,0 0-1,-11 7 1,8-6 36,1 1 0,0 0 0,0 0 0,0 0 0,-9 13 0,16-19-162,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,1 0 0,47 5-67,-42-5 119,25 0 25,88-2-1805,-93 0-667,0-1 0,35-8 0,-16-2-5191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3181.44">1435 165 6611,'0'0'15602,"-1"0"-15587,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 1,1 0-1,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 1,-1 0-1,1 0-9,1 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0-1-1,0 1 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,3 0 1,57-6 539,-57 6-516,0-1 1,1 0-1,-1-1 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 1 1,-1-1-1,1 0 1,-1 0-1,0-1 0,0 1 1,0-1-1,0 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,-1 0 1,1-1-1,-1 1 0,1 0 1,0-9-1,-2 12-26,0-1-1,-1 0 0,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-3-1 1,-59-4 54,53 5-75,-16 0-287,0 1-1,0 1 0,-47 10 0,-28 16-5799,38-10-2889</inkml:trace>
@@ -4130,11 +4130,11 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">147 56 10165,'0'0'9412,"-17"4"-9073,-54 17 24,68-20-295,0 1 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1-1,1 1 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,2 7 0,-2 2 221,0-10-250,1 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,1 0 1,-1 1-1,5 0 1,8 4 46,1 0 1,31 6 0,-21-5 99,-41-6-1726,-22 2-2799,2-7-3869,10-8 126</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="142.67">1 108 9300,'0'0'8980,"121"-61"-8724,-86 61-191,-6 0-65,10 0-209,-10 0-1615,5 0-1362,-5 0-2256</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="142.66">1 108 9300,'0'0'8980,"121"-61"-8724,-86 61-191,-6 0-65,10 0-209,-10 0-1615,5 0-1362,-5 0-2256</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="397.08">423 52 6867,'0'0'13113,"-4"6"-12225,-3 3-645,0 0 0,1 0 0,0 1 0,0 0 0,1 1 0,1-1 0,-1 1 0,2 0 0,0 0 0,0 0 0,-1 15 0,38-26-157,-31-1-70,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,2-6 0,3-16-7267</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="562.41">423 52 11317</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="826.86">423 39 11317,'-20'33'3364,"16"-27"-1320,1-5-1891,0-1-1,1 1 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 5 1,0-2 57,0 0 0,0 0 1,1 0-1,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,0 0-1,0 1 0,1 6 0,0-11-198,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,1 0-1,41-3 203,-38 1-203,1 0-1,-1 0 0,0 0 0,0 0 1,0-1-1,0 0 0,-1-1 1,1 1-1,-1-1 0,0 0 0,0 0 1,0-1-1,0 1 0,4-7 0,-6 7-4,0 0 0,0 0-1,0-1 1,-1 1 0,1-1-1,-1 0 1,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,-1-1-1,0 1 1,0 0 0,0 0-1,-2-8 1,1 10 14,-1 0 1,1 0-1,-1 0 1,0 0 0,0 1-1,0-1 1,-1 0-1,1 1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,-1 0-1,-5 0 1,4-1-179,1 1 0,-1 0 0,1 1 0,-1-1 1,0 1-1,1 0 0,0 0 0,-1 0 0,-3 2 0,6-2-225,0 0 0,0-1 1,0 1-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,1-1 0,-1 1 1,0 2-1,0 7-7429</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1214.12">819 45 8868,'0'0'11595,"-9"-3"-10606,-23-7 445,31 9 52,25 9-1044,2-2-373,0-1 0,0-1 1,1-1-1,34-1 0,4 1-138,-64-3 69,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,0 1 0,1-1-1,-1 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,-33 28 18,31-26-14,-178 163-1151,94-81-8810,52-54-955</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="826.85">423 39 11317,'-20'33'3364,"16"-27"-1320,1-5-1891,0-1-1,1 1 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 5 1,0-2 57,0 0 0,0 0 1,1 0-1,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,0 0-1,0 1 0,1 6 0,0-11-198,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,1 0-1,41-3 203,-38 1-203,1 0-1,-1 0 0,0 0 0,0 0 1,0-1-1,0 0 0,-1-1 1,1 1-1,-1-1 0,0 0 0,0 0 1,0-1-1,0 1 0,4-7 0,-6 7-4,0 0 0,0 0-1,0-1 1,-1 1 0,1-1-1,-1 0 1,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,-1-1-1,0 1 1,0 0 0,0 0-1,-2-8 1,1 10 14,-1 0 1,1 0-1,-1 0 1,0 0 0,0 1-1,0-1 1,-1 0-1,1 1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,-1 0-1,-5 0 1,4-1-179,1 1 0,-1 0 0,1 1 0,-1-1 1,0 1-1,1 0 0,0 0 0,-1 0 0,-3 2 0,6-2-225,0 0 0,0-1 1,0 1-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,1-1 0,-1 1 1,0 2-1,0 7-7429</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1214.11">819 45 8868,'0'0'11595,"-9"-3"-10606,-23-7 445,31 9 52,25 9-1044,2-2-373,0-1 0,0-1 1,1-1-1,34-1 0,4 1-138,-64-3 69,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,0 1 0,1-1-1,-1 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,-33 28 18,31-26-14,-178 163-1151,94-81-8810,52-54-955</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4163,11 +4163,11 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">25 1 13990,'0'0'5982,"-4"18"-5547,-2 6-267,2-12-49,1 0 0,0 0 0,1 0 0,1 0 1,0 24-1,1-34-96,0 0 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,3 1 0,-1 0-9,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0-1 0,3-2 0,0-2 7,0 0 1,-1 0-1,0-1 1,0 0 0,0 0-1,-1 0 1,-1 0-1,1 0 1,-1-1-1,-1 1 1,1-1-1,-2 0 1,2-15-1,-3 23 785,0 5-694,0 225-699,0-228 347,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,1 1-1,-1-1 1,0 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,0 0 0,0 0-1,0 0 1,1 1 0,18 3-7503,-1-5 313</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="156.21">342 68 8308,'0'0'13414,"-5"44"-13062,0-8-256,5 3-96,0-3-368,0 3-2369,0-5-817,0-9-5106</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="156.2">342 68 8308,'0'0'13414,"-5"44"-13062,0-8-256,5 3-96,0-3-368,0 3-2369,0-5-817,0-9-5106</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="326.87">584 184 12038,'0'0'10148,"88"-28"-10356,-59 28-2049,5-3-1601,0-3-3601</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="623.99">1088 64 15095,'0'0'6611,"-15"17"-6187,-44 57-170,57-71-233,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1 0,-1-1-1,1 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,1 3 1,3 1 26,0 0 0,0 0 1,0-1-1,1 0 0,0 0 0,8 8 1,8 9 21,-20-22-118,20 32 287,-21-33-276,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 2 0,-47 9-7617,23-10-3108</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="792.69">976 136 10949,'0'0'5811,"116"-53"-4963,-77 48-560,0-4-288,-9 7-32,-6 2-1168,-4 0-1778,-11 0-3521</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1108.38">1369 193 13494,'0'0'8660,"-3"19"-7707,-7 61-353,10-78-579,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,3 0 0,1 0 5,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,-1 1-1,8-5 1,-8 3-2,1-1-1,-1 0 1,0 0-1,0 0 0,0-1 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1-1 0,0 1 1,0-1-1,-1 0 1,0 1-1,0-1 0,-1-1 1,1 1-1,-2 0 0,1 0 1,-1 0-1,0 0 1,0-1-1,-1 1 0,-2-13 1,1 17-18,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-3 0 1,-8-1-26,0 1 1,-1 0 0,-18 1 0,18 0-31,8 0-60,-1 1 0,1 0 1,0 0-1,0 1 0,0 0 1,0 0-1,0 0 0,0 1 1,0 0-1,1 1 0,-9 5 1,-3 4-2658,0 1 0,-22 23 0,19-14-5577</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1108.37">1369 193 13494,'0'0'8660,"-3"19"-7707,-7 61-353,10-78-579,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,3 0 0,1 0 5,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,-1 1-1,8-5 1,-8 3-2,1-1-1,-1 0 1,0 0-1,0 0 0,0-1 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1-1 0,0 1 1,0-1-1,-1 0 1,0 1-1,0-1 0,-1-1 1,1 1-1,-2 0 0,1 0 1,-1 0-1,0 0 1,0-1-1,-1 1 0,-2-13 1,1 17-18,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-3 0 1,-8-1-26,0 1 1,-1 0 0,-18 1 0,18 0-31,8 0-60,-1 1 0,1 0 1,0 0-1,0 1 0,0 0 1,0 0-1,0 0 0,0 1 1,0 0-1,1 1 0,-9 5 1,-3 4-2658,0 1 0,-22 23 0,19-14-5577</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4290,7 +4290,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="233.77">381 98 10485,'0'0'8228,"-1"-11"-7377,1-1-769,-3-14 386,2 59 564,1 190 1626,0-74-5572,0-149 2765,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,2 0 0,16 1-5532</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="581.13">594 255 7860,'0'0'10970,"-1"5"-10589,-3 19 115,0-11-238,1 0-1,1 1 0,0 0 0,1-1 0,1 1 0,0 0 0,3 23 1,-2-36-244,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,-1-1 0,1 1 0,2-2 0,1 0 43,-1 1 0,1-1 0,0 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,0 0 0,4-5 1,-3 1-10,0 0 1,-1 0-1,0-1 1,0 1-1,0-1 1,-1 0-1,-1 1 1,1-1-1,-1 0 1,-1 0-1,1 0 1,-1 0-1,-1 0 1,1 0-1,-3-8 1,2 14-46,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-4 2 0,-2-1-29,0 1-1,1 0 1,-1 1-1,0-1 1,1 1-1,0 1 0,-12 6 1,14-5-363,-1-1-1,1 1 1,0 0 0,0 1-1,0-1 1,-5 9 0,-6 25-5093,10-11-567</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="984.7">1073 282 16103,'0'0'5560,"-32"72"-5026,28-63-446,1 0 0,0 1 1,1 0-1,0-1 0,1 1 1,0 0-1,0 0 0,1 0 1,1 17-1,1-26-78,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,3-1 0,0-3 6,-1 1-1,0-1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0-1 0,-1 0-1,0 1 1,0-1-1,0 0 1,1-11-1,0 3 8,-2 0 0,1-1 0,-2 1 0,0 0-1,-2-15 1,2 27-21,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-4 2 0,2-2-138,-1 1 0,1 0 0,-1 0 0,1 1-1,-1-1 1,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,-3 4 0,5-3-605,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,1-1 0,0 8 0,0 6-4795</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1309.09">1272 292 9492,'0'0'6771,"7"6"-6389,-2-1-219,0 0 0,-1 1 1,1-1-1,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 1 1,-1-1-1,1 1 0,2 11 0,4 6 328,-6-16-144,-1-1-1,1 0 1,-1 0 0,0 1 0,0 11 0,-2-19 149,11-11 1967,19-49-1554,-16 33-816,19-51 1,-27 66 653,5 7-4618,11 17-4365,-7 0 1249</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1309.08">1272 292 9492,'0'0'6771,"7"6"-6389,-2-1-219,0 0 0,-1 1 1,1-1-1,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 1 1,-1-1-1,1 1 0,2 11 0,4 6 328,-6-16-144,-1-1-1,1 0 1,-1 0 0,0 1 0,0 11 0,-2-19 149,11-11 1967,19-49-1554,-16 33-816,19-51 1,-27 66 653,5 7-4618,11 17-4365,-7 0 1249</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2926.17">1564 322 3025,'0'0'12563,"6"0"-11410,7 1-735,29-2 2000,-41 0-2372,1 1-1,-1 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,0 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 1,1-1-1,-1-1 0,1-3 78,1 2-66,-1-1 0,-1 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,0 1 0,-2-7-1,3 11-48,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 2 0,-16 18-56,11-9 87,1 1 0,0-1 1,1 1-1,0 0 0,1 1 0,0-1 0,1 0 0,1 1 0,0-1 0,1 19 0,0-30-25,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 1,38-7 206,-16-6-137,0 0 1,33-26 0,-13 8-102,-42 31 13,-1-1-1,1 1 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 1-1,1 0 1,-1-1 0,3 1-1,-4 0 6,0 0 0,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 1,1 2 0,1 4 37,0 0 0,-1 1 0,0-1 1,0 1-1,0 0 0,0 9 1,-2-12 30,1 1 0,-1-1 1,2 0-1,-1 0 1,0 0-1,1 1 0,0-1 1,3 5-1,-4-9-49,0 0 0,0-1-1,0 1 1,1 0 0,-1 0-1,0-1 1,0 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 1 0,1-1-1,-1 0 1,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1 0,1 1-1,-1 0 1,1-1 0,1 0 0,30-17 68,-13-2-189,-1-1 1,-1-1-1,-1-1 1,-1 0-1,-1-1 1,-1-1-1,-2 0 1,16-42-1,-24 54 60,0 0 0,-1 0-1,0-1 1,-1 1 0,-1-1-1,0 1 1,-2-23 0,1 11 11,-15 27 86,8 8-58,0-1-1,1 2 1,0-1 0,1 1-1,0 0 1,1 0 0,-5 19-1,2-7 81,2 1 1,0 0-1,1 0 0,2 0 0,0 42 0,2-58-56,1-1 0,0 1 1,1-1-1,0 1 0,0-1 1,0 0-1,1 0 0,0 0 1,7 13-1,-7-17-15,0 1 0,0 0 0,0-1 0,1 0 0,-1 1-1,1-1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,5 1 0,-4-1 4,0 0 1,0-1-1,1 1 0,-1-1 1,0 0-1,0 0 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 1,0 0-1,-1 0 0,1-1 1,0 1-1,-1-1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 0 1,6-7-1,-6 3-23,0 1 0,0-1 1,0 0-1,-1 0 0,0-1 0,-1 1 0,0-1 1,0 0-1,-1 0 0,0 0 0,0 0 0,-1 0 1,-1 0-1,0-10 0,1 18 8,-1 0-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-2 0-1,-1 1-1,1 0 0,-1 0 0,1-1 0,-1 2 0,1-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 1 0,0-1 0,-2 4 0,-1 0-3,1 1-1,-1-1 1,1 1 0,1 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,1-1 0,0 1-1,0 0 1,1-1 0,-2 15-1,29-25-72,38-36 130,-61 37-46,-3 12-57,-1-4 46,1 1 0,0 0-1,0-1 1,1 1 0,0 0-1,0-1 1,3 9 0,-3-12 10,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,-1-1 1,3 0-1,1-1 3,-1 0 0,0 0 1,1 0-1,-1-1 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,0-1 0,1 0 0,-1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0-1 0,3-5 1,3-9 9,-1 0 1,0-1 0,4-22 0,2-41 9,-13 82-25,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 1 1,1 0-1,-1-1 0,0 0 0,-16 39-58,3 3 95,3-1 1,2 2-1,1-1 1,-2 45-1,2 170 318,8-250-349,-5 107 390,5-113-261,0-17 495,2-18-616,2 1 1,0-1-1,3 1 0,1 0 0,1 0 0,2 1 0,1 0 0,2 1 0,1 0 0,35-54 0,-47 81-26,0 0 0,0 0-1,1 0 1,0 1 0,0-1-1,0 1 1,0 0 0,1 0-1,-1 1 1,1-1 0,0 1-1,0 0 1,1 0 0,-1 1-1,0-1 1,1 1 0,0 0-1,-1 1 1,1 0 0,0-1-1,0 2 1,0-1 0,-1 1-1,12 0 1,-15 1 6,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 3 0,-1-1 2,1-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 2 0,-7 5 20,-1-2 0,0 0 0,0 0 1,0-1-1,-1 0 0,0-1 0,-1-1 0,-18 4 0,-27 11-756,49-19-6761</inkml:trace>
 </inkml:ink>
 </file>
@@ -4348,7 +4348,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">239 255 3185,'0'0'4202,"-5"-42"3589,-10 31-6894,-3 0 295,17 11-1051,-19-14 627,20 13-725,0 0 1,-1 1-1,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 1,-1-1-1,1-2 18,1 3-56,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0 0,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,-8-37 180,8 36-172,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 0,0-1 1,0 0-1,-1 1 0,1 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 1,-1 1-1,-3-1-1,1 0 0,0 0 0,-1 1 0,1 0 0,0 0 0,0 0 0,-8 3 0,6 0-2,1 0 0,-1 1 0,1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,1 1 0,1 0 0,-1 0 0,1 1 1,0-1-1,0 1 0,1-1 0,-3 13 0,1 3 75,1 1-1,1 0 0,1 33 1,1-54-79,0 0 1,0-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,1-1-1,1 2 1,1 1 3,1-2 0,-1 1 1,1 0-1,-1-1 0,1 0 1,0 0-1,-1 0 1,7-1-1,0 1-4,-1-1 1,1-1-1,0 0 1,-1 0-1,1-1 0,18-6 1,-21 5-36,-1-1 1,1 0 0,-1 0-1,0-1 1,0 0 0,-1 0-1,1 0 1,-1-1 0,0 0-1,8-11 1,-3 0-48,-1 0 1,-1 0-1,10-24 0,-25 54 112,1 1-1,1-1 0,0 1 1,1 0-1,0 0 1,2 0-1,-1 0 0,1 0 1,2 16-1,0-28-31,-1 0 0,1 0 0,-1-1-1,1 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1-1 0,0 1-1,-1 0 1,1 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,2-1 0,1 1 1,0-1 0,1 0-1,-1 0 1,0 0 0,0-1 0,0 1 0,-1-1-1,1 0 1,0-1 0,6-4 0,-7 4-1,0-1 0,-1 1-1,1-1 1,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,0-1 1,0 0 0,0 1 0,0-1 0,1-7-1,-1-3 14,0 1 0,-1-1 0,-2-19 0,1 10 20,0 23-42,0 1 1,0-1-1,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 1,0 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-164,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 0,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,0 0 1,-1 2-1,1 10-3571,0-4-1020</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1119.18">502 222 5987,'0'0'7625,"4"7"-6985,0 0-461,0 0 0,0 1 0,-1-1 0,0 1 1,0 0-1,2 15 0,-5-22-102,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,2 2 1,-1-2 1,-1-1 1,1 1 0,-1-1-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-3-1,8-11 157,-2 0 0,11-30-1,-2-30-136,-16 89-296,2 0-1,-1 0 1,2 0-1,5 18 1,-8-30 205,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,3-1 1,-2 0 3,1 1 0,-1-2-1,0 1 1,1 0 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,-1 0-1,1 0 1,1-5 0,0 0 10,-1 0 0,-1 0 1,1 0-1,-2 0 0,1-15 0,-1 23-23,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-2 1 1,-22 8 50,21-4-35,0 0 0,1-1 0,0 1 0,-1 0 1,2 1-1,-1-1 0,0 0 0,1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 1,1 10-1,-1-9 1,0-5-11,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0-1 0,0 1 1,1-1-1,-1 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 0,1 1 1,46-8 51,-37 2-59,11-7 22,-23 13-21,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,1-1-1,-1 1 1,4 11-108,-3-7 149,0 0 0,0 0 0,1-1 1,0 1-1,0-1 0,4 8 0,-5-11-133,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,3 0 0,3-1-714,0 1-1,-1-2 0,1 1 1,-1-1-1,0 0 0,0 0 0,1-1 1,-1 0-1,-1 0 0,14-9 1,-7 3-296,-1 0 0,1-2 0,-2 1 1,16-18-1,-27 28 1299,1 0 1,-1-1-1,0 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-2-1,-24-5 2731,20 7-2692,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,0 0 0,0 0 0,-8 3 0,13-4-216,-1 1 1,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0-15,0-1 1,0 0 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1-1,6-9-17,0 0-1,-1 0 0,0-1 0,-1 1 0,0-1 0,-1 0 0,0 0 1,0 0-1,-1-1 0,1-19 0,-2-67-654,-1 96 666,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0-1 0,0 1 0,-1 0 0,1 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1-1,-17 16 76,12-7-19,1 0 1,1 0-1,-1 1 1,2-1-1,-1 1 1,2 0-1,-4 20 0,2 81 277,4-92-315,0-13-34,0 0-1,0 0 0,1 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0-1 0,1 1 0,0-1 0,0 1 0,0-1 1,1 0-1,0 0 0,0-1 0,0 1 0,1-1 0,0 0 1,0 0-1,7 6 0,-4-6-654,-1-1-1,1 0 1,0 0-1,0-1 1,0 0-1,0 0 1,0 0-1,1-1 1,-1-1-1,14 2 1,31 0-7607</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1119.17">502 222 5987,'0'0'7625,"4"7"-6985,0 0-461,0 0 0,0 1 0,-1-1 0,0 1 1,0 0-1,2 15 0,-5-22-102,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,2 2 1,-1-2 1,-1-1 1,1 1 0,-1-1-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-3-1,8-11 157,-2 0 0,11-30-1,-2-30-136,-16 89-296,2 0-1,-1 0 1,2 0-1,5 18 1,-8-30 205,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,3-1 1,-2 0 3,1 1 0,-1-2-1,0 1 1,1 0 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,-1 0-1,1 0 1,1-5 0,0 0 10,-1 0 0,-1 0 1,1 0-1,-2 0 0,1-15 0,-1 23-23,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-2 1 1,-22 8 50,21-4-35,0 0 0,1-1 0,0 1 0,-1 0 1,2 1-1,-1-1 0,0 0 0,1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 1,1 10-1,-1-9 1,0-5-11,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0-1 0,0 1 1,1-1-1,-1 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 0,1 1 1,46-8 51,-37 2-59,11-7 22,-23 13-21,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,1-1-1,-1 1 1,4 11-108,-3-7 149,0 0 0,0 0 0,1-1 1,0 1-1,0-1 0,4 8 0,-5-11-133,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,3 0 0,3-1-714,0 1-1,-1-2 0,1 1 1,-1-1-1,0 0 0,0 0 0,1-1 1,-1 0-1,-1 0 0,14-9 1,-7 3-296,-1 0 0,1-2 0,-2 1 1,16-18-1,-27 28 1299,1 0 1,-1-1-1,0 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-2-1,-24-5 2731,20 7-2692,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,0 0 0,0 0 0,-8 3 0,13-4-216,-1 1 1,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0-15,0-1 1,0 0 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1-1,6-9-17,0 0-1,-1 0 0,0-1 0,-1 1 0,0-1 0,-1 0 0,0 0 1,0 0-1,-1-1 0,1-19 0,-2-67-654,-1 96 666,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0-1 0,0 1 0,-1 0 0,1 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1-1,-17 16 76,12-7-19,1 0 1,1 0-1,-1 1 1,2-1-1,-1 1 1,2 0-1,-4 20 0,2 81 277,4-92-315,0-13-34,0 0-1,0 0 0,1 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0-1 0,1 1 0,0-1 0,0 1 0,0-1 1,1 0-1,0 0 0,0-1 0,0 1 0,1-1 0,0 0 1,0 0-1,7 6 0,-4-6-654,-1-1-1,1 0 1,0 0-1,0-1 1,0 0-1,0 0 1,0 0-1,1-1 1,-1-1-1,14 2 1,31 0-7607</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1989.51">1672 230 2785,'0'0'11339,"-8"-9"-10667,-28-27-370,35 36-291,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1-1,1 0 1,-2 1 0,-20 32 371,18-26-255,-2 2-54,1 0 0,1 0 0,0 0 0,1 1 0,0-1 0,0 1-1,1-1 1,0 1 0,1 0 0,0 13 0,1-24-70,0 0 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0 0,0 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 1 0,-1-1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1-1 0,1 1 0,-1 0-1,0 0 1,1-1 0,-1 1 0,22-12 45,-15 6-55,0-1-1,0 0 0,-1 0 0,0-1 0,0 1 1,-1-1-1,0-1 0,5-9 0,-6 13-72,-2 15 49,0 30 69,1-1 58,-2-36-92,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,1 0 0,-1 0 0,0-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 0 0,0 0 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 1,0-1-1,1 0 0,-1 0 0,1 0 0,-1 0 0,7-2 0,-1 1 5,0-1 0,1 1 0,-1-2 1,0 1-1,0-1 0,0-1 0,0 0 0,-1 0 0,1 0 0,14-12 0,-12 8-7,0-1 1,-1-1-1,0 0 1,0 0-1,-1-1 1,-1 0-1,0-1 1,0 0-1,-1 0 1,0-1-1,-2 1 1,1-1-1,-1-1 0,-1 1 1,0-1-1,-1 1 1,-1-1-1,0 0 1,0-17-1,-1 11 6,-2-25 26,1 44-35,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,-2 0 0,2 1-7,0-1 1,-1 1 0,1 0 0,0 0 0,0 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 3 0,-6 37 7,3-3-14,-2 64 218,6-95-160,0 1 0,1-1 0,0 0 0,0 0-1,1 0 1,-1 0 0,2 0 0,-1 0 0,1 0 0,7 12 0,-8-16-25,0 0 1,0 0 0,0-1 0,0 1-1,1-1 1,0 1 0,-1-1 0,1 0-1,0 1 1,0-2 0,0 1 0,0 0-1,0 0 1,1-1 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,0-1-1,-1 1 1,1-1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1-1 0,1 1-1,-1 0 1,3-3 0,6-2-1,-1-1 0,-1 0 0,1-1 0,-1 0 0,-1-1-1,0 0 1,16-20 0,-15 15-1,-1-1 0,-1 0 0,0 0 0,-1-1 0,-1 0 0,0 0-1,-1-1 1,-1 1 0,0-1 0,-1 0 0,-1 0 0,-1-32 0,-1 47 93,-2 7 77,-12 24-50,2 1 0,1 0 0,2 1 0,1 0 0,1 1 0,1-1 0,2 1 0,2 0 0,1 0 0,1 1 0,6 42 0,-5-67-128,0 1 0,1-1 0,0-1 1,1 1-1,0 0 0,0 0 1,1-1-1,-1 0 0,2 0 1,-1 0-1,1 0 0,0-1 0,0 0 1,1 0-1,0 0 0,0 0 1,0-1-1,1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,9 2 1,-6-2-815,0-1 1,0 0 0,0-1 0,0 0 0,1-1 0,15 0 0,-17-1-7693</inkml:trace>
 </inkml:ink>
 </file>
@@ -4449,7 +4449,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7585.16">1693 170 7299,'0'0'8924,"-1"-1"-8809,1 0-1,0 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1-1,-3 0 1,1 0-81,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 1 0,1-1 1,-1 1-1,-2 1 1,4 0-26,-1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 1 1,0-1-1,1 7 0,-1-4-13,0-1 1,0 1 0,0-1 0,1 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,1-1 0,0 0 0,1 0 0,-1 0-1,1 0 1,0-1 0,4 6 0,-6-10-3,0 1-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1 0,-1-1-1,-19 6-2187,1-5-4112,14-1 607</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7779.77">1618 186 5891,'0'0'10885,"93"-66"-9765,-74 63-223,-4 0-497,-1 0 32,-4 0-400,-10 20-3634,-5 0 241,-9 2-3907</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8136.76">1220 733 9877,'0'0'9460,"15"0"-9140,9-3 32,5 3-64,5-5-256,-4 5-32,-6-3-320,-9 3-1729,-6 0-944,6 0-3714</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8704.96">1659 630 3121,'0'0'13767,"-1"0"-13596,1-1 1,-1 0 0,1 1-1,-1-1 1,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,-1 0-1,-3 1-150,-1 1 1,0 1-1,0-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,0 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 1 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,0 1 1,-2 6-1,0 1 37,-1 1 0,2 0 0,0 0 0,1 1 0,0-1 0,1 1 0,0 20 0,2-25-38,0 1 0,1-1 0,0 1 0,0-1 0,1 0 0,4 13 0,-5-21-17,0 1 1,0 0 0,1-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0-1 1,1 1 0,-1 0-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,0-1 1,-1 1-1,1-1 1,0 0 0,3 0-1,1 0-12,0 0 0,0 0 0,0-1 0,0 0-1,0 0 1,0-1 0,-1 1 0,11-5 0,-15 5-15,0-1-1,0 1 1,1-1 0,-1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 0 0,0 1 0,0-4 0,0 5 15,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,-27-2-184,18 5 83,6-1-70,0 0 1,0 0-1,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 1 1,0 0-1,1 0 0,-1 0 0,-3 3 1,3-1-1189,0 0 1,0 0 0,1 0-1,0 0 1,-8 11-1,2 1-7951</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8704.95">1659 630 3121,'0'0'13767,"-1"0"-13596,1-1 1,-1 0 0,1 1-1,-1-1 1,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,-1 0-1,-3 1-150,-1 1 1,0 1-1,0-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,0 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 1 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,0 1 1,-2 6-1,0 1 37,-1 1 0,2 0 0,0 0 0,1 1 0,0-1 0,1 1 0,0 20 0,2-25-38,0 1 0,1-1 0,0 1 0,0-1 0,1 0 0,4 13 0,-5-21-17,0 1 1,0 0 0,1-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0-1 1,1 1 0,-1 0-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,0-1 1,-1 1-1,1-1 1,0 0 0,3 0-1,1 0-12,0 0 0,0 0 0,0-1 0,0 0-1,0 0 1,0-1 0,-1 1 0,11-5 0,-15 5-15,0-1-1,0 1 1,1-1 0,-1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 0 0,0 1 0,0-4 0,0 5 15,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,-27-2-184,18 5 83,6-1-70,0 0 1,0 0-1,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 1 1,0 0-1,1 0 0,-1 0 0,-3 3 1,3-1-1189,0 0 1,0 0 0,1 0-1,0 0 1,-8 11-1,2 1-7951</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9058.39">1093 1290 9412,'0'0'11253,"15"0"-11189,14 0 33,5 0-97,5 0-81,-5 0-863,5 0-1953,-4-3-2226,-6-2-5746</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9517.33">1667 1264 10917,'0'0'8294,"14"-9"-7859,-9 8-432,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1-1-1,7 4 1,-12 3-1,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,-8 7 0,7-4 5,-2-1 18,6-5-7,-1 0 0,1 0-1,0 0 1,0 1 0,-1-1 0,1 1-1,1 0 1,-1-1 0,0 1 0,1 0 0,-1 0-1,-1 4 1,10-4 26,-5-3-43,16 0-457,0-1 0,35-6 0,-44 5-488,0 0 0,1-1 0,-1-1 0,12-6 0,18-14-7451</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10104.1">3170 20 8052,'0'0'9268,"-20"20"-9092,30-15-80,9-2 32,1 3-96,4-4 16,1 1-48,4 0-1056,5-3-2066,-5 0-4673</inkml:trace>
@@ -4496,8 +4496,8 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">25 165 12598,'0'0'5461,"0"-12"-389,-1 189-4376,-3-203-687,-1-5-2,1-1 0,1 0 1,2 0-1,6-64 0,-5 92-15,2 0-1,-1 0 0,0 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 1-1,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 1 0,1-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,0 0 1,1 1-1,-1-1 1,0 1-1,5-1 0,-8 2 2,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 42 16,1-33-2,0-4-1,0-1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0-1,-2-1 1,1 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,1-1 0,-6 5 0,8-8-33,1-1 0,0 1 1,-1-1-1,1 1 0,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 1,0 1-1,0 0 0,-1-1 0,1 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,1-1 0,-1 1 0,0-1 1,1 1-1,0 0 0,28 19-87,-27-19 113,1 0-1,-1 0 0,1 0 0,-1 1 0,0-1 1,0 1-1,1-1 0,-1 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,2 5 0,-2-5 4,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-2 3 0,-33 12 197,33-15-197,-11 3-39,-1-1 1,1-1 0,-1 0 0,-24-1-1,42-16-3973,1 12 2952,-1 0 0,0-1 0,1 1 0,0 0 0,0 0 0,0 1 0,6-4 0,-1 1-842,16-12-3807</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="282.13">302 70 9652,'0'0'7332,"0"-11"-5545,-2 125-19,-1 5-4208,4-118 2234,-1-1 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,2-1-896,16 1-3295</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.85">426 210 4482,'0'0'10720,"1"-6"-9349,3-24 1638,-7 32-2761,-3 4-228,-1 1-1,1 0 1,1 1-1,-1 0 1,1-1-1,1 2 1,0-1-1,0 0 1,-4 13-1,8-21-17,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,0 0 1,1-1-1,22-13 211,29-51-57,-51 64 208,-1 34-769,0-31 412,0-1 1,-1 0-1,1 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 1,0 0-1,2-1-8,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-1 0 0,5-4 0,-3 4-51,1 1 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,-1 0-1,1 0 1,-1 0-1,10 2 1,3-1-78,-14-1 110,0 0-1,-1-1 1,1 1 0,0 0 0,-1-1-1,1 0 1,-1 0 0,1 1 0,-1-2-1,0 1 1,1 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,2-3 1,0 0 7,-1-1-1,1 0 1,-1 1-1,-1-1 1,1 0-1,-1 0 1,3-12 0,-1-5 24,0-1 0,-2 0 1,0-31-1,-2 30 91,0 22-108,0 5-28,2 38-193,0-3 261,8 69 116,-10-105-70,7-4 664,6-23-508,-10 18-201,1 1 0,0 0 1,0 0-1,1 0 0,0 0 0,0 1 0,7-8 1,-40 33-246,21-15 130,0 1-1,0-1 1,0 1 0,0 1 0,1 0 0,-10 9 0,16-14 54,-1 0 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,2 2 0,22 13-243,33-4 193,-56-11 71,52 2 304,-14-3-5266</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2169.72">504 518 10037,'0'0'9089,"5"-14"-4826,11 9-4172,-1 1 0,1 0 0,21-3 0,0 5-7242</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1275.84">426 210 4482,'0'0'10720,"1"-6"-9349,3-24 1638,-7 32-2761,-3 4-228,-1 1-1,1 0 1,1 1-1,-1 0 1,1-1-1,1 2 1,0-1-1,0 0 1,-4 13-1,8-21-17,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,0 0 1,1-1-1,22-13 211,29-51-57,-51 64 208,-1 34-769,0-31 412,0-1 1,-1 0-1,1 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 1,0 0-1,2-1-8,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-1 0 0,5-4 0,-3 4-51,1 1 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,-1 0-1,1 0 1,-1 0-1,10 2 1,3-1-78,-14-1 110,0 0-1,-1-1 1,1 1 0,0 0 0,-1-1-1,1 0 1,-1 0 0,1 1 0,-1-2-1,0 1 1,1 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,2-3 1,0 0 7,-1-1-1,1 0 1,-1 1-1,-1-1 1,1 0-1,-1 0 1,3-12 0,-1-5 24,0-1 0,-2 0 1,0-31-1,-2 30 91,0 22-108,0 5-28,2 38-193,0-3 261,8 69 116,-10-105-70,7-4 664,6-23-508,-10 18-201,1 1 0,0 0 1,0 0-1,1 0 0,0 0 0,0 1 0,7-8 1,-40 33-246,21-15 130,0 1-1,0-1 1,0 1 0,0 1 0,1 0 0,-10 9 0,16-14 54,-1 0 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,2 2 0,22 13-243,33-4 193,-56-11 71,52 2 304,-14-3-5266</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2169.71">504 518 10037,'0'0'9089,"5"-14"-4826,11 9-4172,-1 1 0,1 0 0,21-3 0,0 5-7242</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2555.23">517 518 2865,'0'-1'466,"1"1"-1,0-1 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,-1-2 0,-13 10 3373,9-3-3665,1 0-1,-1 0 0,1 1 1,0-1-1,1 1 0,-4 6 1,5-8-159,1 1 0,-1-1 0,1 1 0,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,0 0 0,0-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 1,1 1-1,-1-1 0,0 1 0,3 2 0,1 2 51,0-1-1,1-1 0,1 1 0,-1-1 1,1 0-1,10 7 0,-9-7-28,-1 0-1,1 0 1,-1 1 0,0 0 0,-1 0 0,9 13-1,-14-19-12,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 0 0,-7 2 146,1 1 1,0-2-1,-1 1 0,0-1 1,-13 1-1,20-3-245,-36-1 165,38 1-300,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 1,0 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0-2 0,0-10-7160</inkml:trace>
 </inkml:ink>
 </file>
@@ -4838,67 +4838,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
@@ -4926,24 +4926,24 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
@@ -4971,24 +4971,24 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
@@ -5025,44 +5025,44 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
@@ -5109,36 +5109,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
@@ -5256,51 +5256,51 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5316,8 +5316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DB2C0D-C9F1-4F91-9E94-D13E160BD921}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5376,8 +5376,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
@@ -5404,12 +5404,12 @@
         <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
@@ -5419,7 +5419,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
@@ -5427,7 +5427,7 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
@@ -5435,7 +5435,7 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
@@ -5443,7 +5443,7 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
@@ -5451,61 +5451,61 @@
         <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="3" t="s">
-        <v>94</v>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5519,7 +5519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872216E1-025C-4311-9F6B-FE91D191A635}">
   <dimension ref="B1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -5531,169 +5531,169 @@
   <sheetData>
     <row r="1" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
-        <v>98</v>
+      <c r="B2" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="6" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="7" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>103</v>
+      <c r="B18" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="7" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="7" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="8" t="s">
-        <v>119</v>
+      <c r="B37" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="9" t="s">
-        <v>118</v>
+      <c r="B39" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="6" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="7" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5706,7 +5706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54765A3-902A-4322-A514-BF60154D92B4}">
   <dimension ref="B2:B516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
@@ -5716,1853 +5716,1853 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="11" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="12" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="11" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="12" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B32" s="12" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="12" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="12" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="12" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="12"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="12" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="12" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="12" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="12" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="12"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="12" t="s">
+    <row r="54" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B54" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B54" s="10" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B56" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B58" s="12" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B60" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B60" s="12" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B62" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B61" s="12"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B62" s="12" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B64" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B63" s="12"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B64" s="12" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65" s="12"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B66" s="12" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B68" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B68" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B69" s="12"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B70" s="12" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B72" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B71" s="12"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B72" s="12" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B73" s="12"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B74" s="12" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B76" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B75" s="12"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B76" s="12" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B78" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B77" s="12"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B78" s="12" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B80" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B82" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B80" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B81" s="12"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B82" s="12" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B84" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B84" s="12" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B86" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B85" s="12"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B86" s="12" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B88" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B87" s="12"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B88" s="12" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B90" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B89" s="12"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B90" s="12" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B92" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B94" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B92" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B93" s="12"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B94" s="12" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B96" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B95" s="12"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B96" s="12" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B98" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B97" s="12"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B98" s="12" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B100" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B99" s="12"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B100" s="12" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B102" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B101" s="12"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B102" s="12" t="s">
+    <row r="106" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B106" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B106" s="10" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B108" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B110" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B108" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B109" s="12"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B110" s="12" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B112" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B111" s="12"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B112" s="12" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B114" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B113" s="12"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B114" s="12" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B116" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B115" s="12"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B116" s="12" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B118" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B117" s="12"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B118" s="12" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B120" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B122" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B120" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B121" s="12"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B122" s="12" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B124" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B123" s="12"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B124" s="12" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B126" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B125" s="12"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B126" s="12" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B128" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B127" s="12"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B128" s="12" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B130" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B129" s="12"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B130" s="12" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B132" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B134" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B132" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B133" s="12"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B134" s="12" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B135" s="11"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B136" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B135" s="12"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B136" s="12" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B138" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B137" s="12"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B138" s="12" t="s">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B140" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B139" s="12"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B140" s="12" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B142" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B141" s="12"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B142" s="12" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B144" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B146" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B144" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B145" s="12"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B146" s="12" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B148" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B147" s="12"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B148" s="12" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B150" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B149" s="12"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B150" s="12" t="s">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B152" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B151" s="12"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B152" s="12" t="s">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B154" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B153" s="12"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B154" s="12" t="s">
+    <row r="158" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B158" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B158" s="10" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B160" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B162" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B160" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B161" s="12"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B162" s="12" t="s">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B164" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B163" s="12"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B164" s="12" t="s">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B165" s="11"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B166" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B165" s="12"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B166" s="12" t="s">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B168" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B167" s="12"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B168" s="12" t="s">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B170" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B169" s="12"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B170" s="12" t="s">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B172" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B173" s="11"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B174" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B172" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B173" s="12"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B174" s="12" t="s">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B176" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B175" s="12"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B176" s="12" t="s">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B178" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B177" s="12"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B178" s="12" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B180" s="11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B179" s="12"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B180" s="12" t="s">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B181" s="11"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B182" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B181" s="12"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B182" s="12" t="s">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B184" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B185" s="11"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B186" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B184" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B185" s="12"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B186" s="12" t="s">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B187" s="11"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B188" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B187" s="12"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B188" s="12" t="s">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B189" s="11"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B190" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B189" s="12"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B190" s="12" t="s">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B191" s="11"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B192" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B191" s="12"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B192" s="12" t="s">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B194" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B193" s="12"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B194" s="12" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B196" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B198" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B196" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B197" s="12"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B198" s="12" t="s">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B199" s="11"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B200" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B199" s="12"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B200" s="12" t="s">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B201" s="11"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B202" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B201" s="12"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B202" s="12" t="s">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B203" s="11"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B204" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B203" s="12"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B204" s="12" t="s">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B205" s="11"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B206" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B205" s="12"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B206" s="12" t="s">
+    <row r="208" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B208" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B208" s="10" t="s">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B210" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B211" s="11"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B212" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B210" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B211" s="12"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B212" s="12" t="s">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B213" s="11"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B214" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B213" s="12"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B214" s="12" t="s">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B215" s="11"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B216" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B215" s="12"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B216" s="12" t="s">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B217" s="11"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B218" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B217" s="12"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B218" s="12" t="s">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B219" s="11"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B220" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B219" s="12"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B220" s="12" t="s">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B222" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B223" s="11"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B224" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B222" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B223" s="12"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B224" s="12" t="s">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B225" s="11"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B226" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B225" s="12"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B226" s="12" t="s">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B227" s="11"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B228" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B227" s="12"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B228" s="12" t="s">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B229" s="11"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B230" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B229" s="12"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B230" s="12" t="s">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B231" s="11"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B232" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B231" s="12"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B232" s="12" t="s">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B234" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B235" s="11"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B236" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B234" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B235" s="12"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B236" s="12" t="s">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B237" s="11"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B238" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B237" s="12"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B238" s="12" t="s">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B239" s="11"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B240" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B239" s="12"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B240" s="12" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B241" s="11"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B242" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B241" s="12"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B242" s="12" t="s">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B243" s="11"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B244" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B243" s="12"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B244" s="12" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B246" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B247" s="11"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B248" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B246" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B247" s="12"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B248" s="12" t="s">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B249" s="11"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B250" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B249" s="12"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B250" s="12" t="s">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B251" s="11"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B252" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B251" s="12"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B252" s="12" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B253" s="11"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B254" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B253" s="12"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B254" s="12" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B255" s="11"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B256" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B255" s="12"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B256" s="12" t="s">
+    <row r="260" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B260" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="260" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B260" s="10" t="s">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B262" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B263" s="11"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B264" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B262" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B263" s="12"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B264" s="12" t="s">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B265" s="11"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B266" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B265" s="12"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B266" s="12" t="s">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B267" s="11"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B268" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B267" s="12"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B268" s="12" t="s">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B269" s="11"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B270" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B269" s="12"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B270" s="12" t="s">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B271" s="11"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B272" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B271" s="12"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B272" s="12" t="s">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B274" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B275" s="11"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B276" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B274" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B275" s="12"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B276" s="12" t="s">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B277" s="11"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B278" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B277" s="12"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B278" s="12" t="s">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B279" s="11"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B280" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B279" s="12"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B280" s="12" t="s">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B281" s="11"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B282" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B281" s="12"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B282" s="12" t="s">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B283" s="11"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B284" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B283" s="12"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B284" s="12" t="s">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B286" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B287" s="11"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B288" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B286" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B287" s="12"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B288" s="12" t="s">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B289" s="11"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B290" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B289" s="12"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B290" s="12" t="s">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B291" s="11"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B292" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B291" s="12"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B292" s="12" t="s">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B293" s="11"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B294" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B293" s="12"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B294" s="12" t="s">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B295" s="11"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B296" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B295" s="12"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B296" s="12" t="s">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B298" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B299" s="11"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B300" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B298" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B299" s="12"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B300" s="12" t="s">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B301" s="11"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B302" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B301" s="12"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B302" s="12" t="s">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B303" s="11"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B304" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B303" s="12"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B304" s="12" t="s">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B305" s="11"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B306" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B305" s="12"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B306" s="12" t="s">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B307" s="11"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B308" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B307" s="12"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B308" s="12" t="s">
+    <row r="312" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B312" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B312" s="10" t="s">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B314" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B315" s="11"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B316" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B314" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B315" s="12"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B316" s="12" t="s">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B317" s="11"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B318" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B317" s="12"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B318" s="12" t="s">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B319" s="11"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B320" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B319" s="12"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B320" s="12" t="s">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B321" s="11"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B322" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B321" s="12"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B322" s="12" t="s">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B323" s="11"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B324" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B323" s="12"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B324" s="12" t="s">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B326" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B327" s="11"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B328" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B326" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B327" s="12"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B328" s="12" t="s">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B329" s="11"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B330" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B329" s="12"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B330" s="12" t="s">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B331" s="11"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B332" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B331" s="12"/>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B332" s="12" t="s">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B333" s="11"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B334" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B333" s="12"/>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B334" s="12" t="s">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B335" s="11"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B336" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B335" s="12"/>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B336" s="12" t="s">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B338" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B339" s="11"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B340" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B338" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B339" s="12"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B340" s="12" t="s">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B341" s="11"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B342" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B341" s="12"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B342" s="12" t="s">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B343" s="11"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B344" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B343" s="12"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B344" s="12" t="s">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B345" s="11"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B346" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B345" s="12"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B346" s="12" t="s">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B347" s="11"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B348" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B347" s="12"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B348" s="12" t="s">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B350" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B351" s="11"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B352" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B350" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B351" s="12"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B352" s="12" t="s">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B353" s="11"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B354" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B353" s="12"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B354" s="12" t="s">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B355" s="11"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B356" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B355" s="12"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B356" s="12" t="s">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B357" s="11"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B358" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B357" s="12"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B358" s="12" t="s">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B359" s="11"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B360" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B359" s="12"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B360" s="12" t="s">
+    <row r="364" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B364" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B364" s="10" t="s">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B366" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B367" s="11"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B368" s="11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B366" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B367" s="12"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B368" s="12" t="s">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B369" s="11"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B370" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B369" s="12"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B370" s="12" t="s">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B371" s="11"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B372" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B371" s="12"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B372" s="12" t="s">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B373" s="11"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B374" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B373" s="12"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B374" s="12" t="s">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B375" s="11"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B376" s="11" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B375" s="12"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B376" s="12" t="s">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B378" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B379" s="11"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B380" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B378" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B379" s="12"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B380" s="12" t="s">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B381" s="11"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B382" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B381" s="12"/>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B382" s="12" t="s">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B383" s="11"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B384" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B383" s="12"/>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B384" s="12" t="s">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B385" s="11"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B386" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B385" s="12"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B386" s="12" t="s">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B387" s="11"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B388" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B387" s="12"/>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B388" s="12" t="s">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B390" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B391" s="11"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B392" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B390" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B391" s="12"/>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B392" s="12" t="s">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B393" s="11"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B394" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B393" s="12"/>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B394" s="12" t="s">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B395" s="11"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B396" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B395" s="12"/>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B396" s="12" t="s">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B397" s="11"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B398" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B397" s="12"/>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B398" s="12" t="s">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B399" s="11"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B400" s="11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B399" s="12"/>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B400" s="12" t="s">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B402" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B403" s="11"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B404" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B402" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B403" s="12"/>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B404" s="12" t="s">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B405" s="11"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B406" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B405" s="12"/>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B406" s="12" t="s">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B407" s="11"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B408" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B407" s="12"/>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B408" s="12" t="s">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B409" s="11"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B410" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B409" s="12"/>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B410" s="12" t="s">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B411" s="11"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B412" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B411" s="12"/>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B412" s="12" t="s">
+    <row r="416" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B416" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="416" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B416" s="10" t="s">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B418" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B419" s="11"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B420" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B418" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B419" s="12"/>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B420" s="12" t="s">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B421" s="11"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B422" s="11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B421" s="12"/>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B422" s="12" t="s">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B423" s="11"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B424" s="11" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B423" s="12"/>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B424" s="12" t="s">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B425" s="11"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B426" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B425" s="12"/>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B426" s="12" t="s">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B427" s="11"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B428" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B427" s="12"/>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B428" s="12" t="s">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B430" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B431" s="11"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B432" s="11" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B430" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B431" s="12"/>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B432" s="12" t="s">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B433" s="11"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B434" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B433" s="12"/>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B434" s="12" t="s">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B435" s="11"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B436" s="11" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B435" s="12"/>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B436" s="12" t="s">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B437" s="11"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B438" s="11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B437" s="12"/>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B438" s="12" t="s">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B439" s="11"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B440" s="11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B439" s="12"/>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B440" s="12" t="s">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B442" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B443" s="11"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B444" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B442" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B443" s="12"/>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B444" s="12" t="s">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B445" s="11"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B446" s="11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B445" s="12"/>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B446" s="12" t="s">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B447" s="11"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B448" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B447" s="12"/>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B448" s="12" t="s">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B449" s="11"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B450" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B449" s="12"/>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B450" s="12" t="s">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B451" s="11"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B452" s="11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B451" s="12"/>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B452" s="12" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B454" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B455" s="11"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B456" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B454" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B455" s="12"/>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B456" s="12" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B457" s="11"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B458" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B457" s="12"/>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B458" s="12" t="s">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B459" s="11"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B460" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B459" s="12"/>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B460" s="12" t="s">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B461" s="11"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B462" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B461" s="12"/>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B462" s="12" t="s">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B463" s="11"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B464" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B463" s="12"/>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B464" s="12" t="s">
+    <row r="468" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B468" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B468" s="10" t="s">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B470" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B471" s="11"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B472" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B470" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B471" s="12"/>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B472" s="12" t="s">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B473" s="11"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B474" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B473" s="12"/>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B474" s="12" t="s">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B475" s="11"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B476" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B475" s="12"/>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B476" s="12" t="s">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B477" s="11"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B478" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B477" s="12"/>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B478" s="12" t="s">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B479" s="11"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B480" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B479" s="12"/>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B480" s="12" t="s">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B482" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B483" s="11"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B484" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B482" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B483" s="12"/>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B484" s="12" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B485" s="11"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B486" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B485" s="12"/>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B486" s="12" t="s">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B487" s="11"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B488" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B487" s="12"/>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B488" s="12" t="s">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B489" s="11"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B490" s="11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B489" s="12"/>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B490" s="12" t="s">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B491" s="11"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B492" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B491" s="12"/>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B492" s="12" t="s">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B494" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B495" s="11"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B496" s="11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B494" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B495" s="12"/>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B496" s="12" t="s">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B497" s="11"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B498" s="11" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B497" s="12"/>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B498" s="12" t="s">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B499" s="11"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B500" s="11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B499" s="12"/>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B500" s="12" t="s">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B501" s="11"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B502" s="11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B501" s="12"/>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B502" s="12" t="s">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B503" s="11"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B504" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B503" s="12"/>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B504" s="12" t="s">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B506" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B507" s="11"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B508" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B506" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B507" s="12"/>
-    </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B508" s="12" t="s">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B509" s="11"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B510" s="11" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B509" s="12"/>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B510" s="12" t="s">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B511" s="11"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B512" s="11" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B511" s="12"/>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B512" s="12" t="s">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B513" s="11"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B514" s="11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B513" s="12"/>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B514" s="12" t="s">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B515" s="11"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B516" s="11" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B515" s="12"/>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B516" s="12" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
